--- a/temp/pages/StructureDefinition-rtlsMessageUnenrollmentHeader.xlsx
+++ b/temp/pages/StructureDefinition-rtlsMessageUnenrollmentHeader.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$42</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$43</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1521" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1557" uniqueCount="331">
   <si>
     <t>Property</t>
   </si>
@@ -39,7 +39,7 @@
     <t>Name</t>
   </si>
   <si>
-    <t>rtlsMessageUnenrollmentHeader</t>
+    <t>RTLSMessageUnenrollmentHeader</t>
   </si>
   <si>
     <t>Title</t>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-04T22:10:47-05:00</t>
+    <t>2025-08-05T14:07:30-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -471,8 +471,8 @@
     <t>MessageHeader.event[x]</t>
   </si>
   <si>
-    <t>Coding
-uri</t>
+    <t xml:space="preserve">Coding
+</t>
   </si>
   <si>
     <t>Code for the event this message represents or link to event definition</t>
@@ -493,6 +493,13 @@
     <t>http://hl7.org/fhir/uv/rtls/ValueSet/rtlsMessageEvents</t>
   </si>
   <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
     <t>MSH-9.2</t>
   </si>
   <si>
@@ -500,6 +507,30 @@
   </si>
   <si>
     <t>FiveWs.what[x]</t>
+  </si>
+  <si>
+    <t>MessageHeader.event[x]:eventCoding</t>
+  </si>
+  <si>
+    <t>eventCoding</t>
+  </si>
+  <si>
+    <t>Fixed RTLS event code</t>
+  </si>
+  <si>
+    <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
+  &lt;system value="http://hl7.org/fhir/uv/rtls/CodeSystem/rtlsMessageEvents"/&gt;
+  &lt;code value="unenroll-tag"/&gt;
+&lt;/valueCoding&gt;</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>One of the message events defined as part of this version of FHIR.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/message-events</t>
   </si>
   <si>
     <t>MessageHeader.destination</t>
@@ -858,9 +889,6 @@
   </si>
   <si>
     <t>Need to be able to track why resources are being changed and report in the audit log/history of the resource.  May affect authorization.</t>
-  </si>
-  <si>
-    <t>example</t>
   </si>
   <si>
     <t>Reason for event occurrence.</t>
@@ -1337,7 +1365,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM42"/>
+  <dimension ref="A1:AM43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1346,17 +1374,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="38.5625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="38.5625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.55078125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="36.48828125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="36.48828125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="10.5390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="33.17578125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.30078125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="3.953125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.265625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.6875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="10.51171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="55.8203125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="53.51171875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1365,25 +1393,25 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="7.93359375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="14.08984375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="7.80078125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="13.609375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="13.91796875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.01171875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="29.0625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="46.09765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.98046875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.44140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="31.21484375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="8.51953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="8.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="51.703125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="44.8984375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.98046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="16.2578125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.54296875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.3203125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.37890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.22265625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="8.53125" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="143.62890625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="144.15625" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="29.45703125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="28.5078125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2577,16 +2605,14 @@
         <v>78</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="AC11" s="2"/>
       <c r="AD11" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>78</v>
+        <v>154</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>145</v>
@@ -2604,35 +2630,37 @@
         <v>100</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="D12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>78</v>
@@ -2641,19 +2669,19 @@
         <v>89</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>78</v>
@@ -2663,7 +2691,7 @@
         <v>78</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>78</v>
+        <v>161</v>
       </c>
       <c r="T12" t="s" s="2">
         <v>78</v>
@@ -2678,13 +2706,13 @@
         <v>78</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>78</v>
+        <v>162</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>78</v>
+        <v>163</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>78</v>
+        <v>164</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>78</v>
@@ -2702,13 +2730,13 @@
         <v>78</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>78</v>
@@ -2717,21 +2745,21 @@
         <v>100</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>78</v>
+        <v>155</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2742,7 +2770,7 @@
         <v>79</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>78</v>
@@ -2751,19 +2779,23 @@
         <v>78</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
+        <v>168</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="O13" t="s" s="2">
+        <v>170</v>
+      </c>
       <c r="P13" t="s" s="2">
         <v>78</v>
       </c>
@@ -2811,47 +2843,47 @@
         <v>78</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>78</v>
+        <v>172</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>133</v>
+        <v>78</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>78</v>
@@ -2863,17 +2895,15 @@
         <v>78</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>134</v>
+        <v>174</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>135</v>
+        <v>175</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>78</v>
@@ -2922,25 +2952,25 @@
         <v>78</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>139</v>
+        <v>78</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>78</v>
@@ -2948,14 +2978,14 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>174</v>
+        <v>133</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -2968,26 +2998,24 @@
         <v>78</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K15" t="s" s="2">
         <v>134</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>175</v>
+        <v>135</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="N15" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="O15" t="s" s="2">
-        <v>143</v>
-      </c>
+      <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>78</v>
       </c>
@@ -3035,7 +3063,7 @@
         <v>78</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>79</v>
@@ -3053,7 +3081,7 @@
         <v>78</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>131</v>
+        <v>178</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>78</v>
@@ -3061,43 +3089,45 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>78</v>
+        <v>183</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="J16" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>165</v>
+        <v>134</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="N16" s="2"/>
+        <v>185</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="O16" t="s" s="2">
-        <v>181</v>
+        <v>143</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>78</v>
@@ -3146,25 +3176,25 @@
         <v>78</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>182</v>
+        <v>78</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>183</v>
+        <v>131</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>78</v>
@@ -3172,10 +3202,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3198,17 +3228,17 @@
         <v>89</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>78</v>
@@ -3257,7 +3287,7 @@
         <v>78</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>79</v>
@@ -3272,10 +3302,10 @@
         <v>100</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>78</v>
+        <v>191</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>78</v>
@@ -3283,10 +3313,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3294,7 +3324,7 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>88</v>
@@ -3309,19 +3339,17 @@
         <v>89</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>194</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>78</v>
@@ -3370,10 +3398,10 @@
         <v>78</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>88</v>
@@ -3385,10 +3413,10 @@
         <v>100</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>196</v>
+        <v>78</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>78</v>
@@ -3396,10 +3424,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3407,7 +3435,7 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>88</v>
@@ -3422,17 +3450,19 @@
         <v>89</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="N19" s="2"/>
+        <v>202</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>203</v>
+      </c>
       <c r="O19" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>78</v>
@@ -3481,10 +3511,10 @@
         <v>78</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>88</v>
@@ -3496,21 +3526,21 @@
         <v>100</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>163</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3533,19 +3563,17 @@
         <v>89</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>208</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>78</v>
@@ -3594,7 +3622,7 @@
         <v>78</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
@@ -3609,21 +3637,21 @@
         <v>100</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>163</v>
+        <v>172</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3646,19 +3674,19 @@
         <v>89</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="L21" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="O21" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>78</v>
@@ -3707,7 +3735,7 @@
         <v>78</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
@@ -3722,13 +3750,13 @@
         <v>100</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>217</v>
+        <v>172</v>
       </c>
     </row>
     <row r="22" hidden="true">
@@ -3759,19 +3787,19 @@
         <v>89</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>78</v>
@@ -3835,21 +3863,21 @@
         <v>100</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>217</v>
+        <v>226</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3857,7 +3885,7 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>88</v>
@@ -3872,17 +3900,19 @@
         <v>89</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>157</v>
+        <v>219</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>229</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>222</v>
+      </c>
       <c r="O23" t="s" s="2">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>78</v>
@@ -3931,10 +3961,10 @@
         <v>78</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>88</v>
@@ -3946,21 +3976,21 @@
         <v>100</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>78</v>
+        <v>230</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3968,7 +3998,7 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>88</v>
@@ -3980,19 +4010,21 @@
         <v>78</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>166</v>
+        <v>233</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>167</v>
+        <v>234</v>
       </c>
       <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
+      <c r="O24" t="s" s="2">
+        <v>235</v>
+      </c>
       <c r="P24" t="s" s="2">
         <v>78</v>
       </c>
@@ -4040,10 +4072,10 @@
         <v>78</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>168</v>
+        <v>232</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>88</v>
@@ -4052,35 +4084,35 @@
         <v>78</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>169</v>
+        <v>236</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>78</v>
+        <v>237</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>133</v>
+        <v>78</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>78</v>
@@ -4092,17 +4124,15 @@
         <v>78</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>134</v>
+        <v>174</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>135</v>
+        <v>175</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>78</v>
@@ -4151,25 +4181,25 @@
         <v>78</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>139</v>
+        <v>78</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>78</v>
@@ -4177,14 +4207,14 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>174</v>
+        <v>133</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -4197,26 +4227,24 @@
         <v>78</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K26" t="s" s="2">
         <v>134</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>175</v>
+        <v>135</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="N26" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="O26" t="s" s="2">
-        <v>143</v>
-      </c>
+      <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>78</v>
       </c>
@@ -4264,7 +4292,7 @@
         <v>78</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
@@ -4282,7 +4310,7 @@
         <v>78</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>131</v>
+        <v>178</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>78</v>
@@ -4290,43 +4318,45 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>78</v>
+        <v>183</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="J27" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>165</v>
+        <v>134</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>185</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="O27" t="s" s="2">
-        <v>234</v>
+        <v>143</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>78</v>
@@ -4375,25 +4405,25 @@
         <v>78</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>232</v>
+        <v>186</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>235</v>
+        <v>78</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>236</v>
+        <v>131</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>78</v>
@@ -4401,10 +4431,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4427,17 +4457,17 @@
         <v>89</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>238</v>
+        <v>188</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>78</v>
@@ -4486,7 +4516,7 @@
         <v>78</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
@@ -4501,10 +4531,10 @@
         <v>100</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>78</v>
@@ -4512,10 +4542,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4538,17 +4568,17 @@
         <v>89</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>78</v>
@@ -4597,7 +4627,7 @@
         <v>78</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
@@ -4612,10 +4642,10 @@
         <v>100</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>78</v>
@@ -4623,10 +4653,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4649,17 +4679,17 @@
         <v>89</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>249</v>
+        <v>174</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>78</v>
@@ -4708,7 +4738,7 @@
         <v>78</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
@@ -4723,10 +4753,10 @@
         <v>100</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>78</v>
@@ -4734,10 +4764,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4745,7 +4775,7 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>88</v>
@@ -4760,19 +4790,17 @@
         <v>89</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>191</v>
+        <v>258</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>194</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>78</v>
@@ -4821,10 +4849,10 @@
         <v>78</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>88</v>
@@ -4836,10 +4864,10 @@
         <v>100</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>78</v>
@@ -4847,10 +4875,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4858,7 +4886,7 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>88</v>
@@ -4873,19 +4901,19 @@
         <v>89</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>214</v>
+        <v>267</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>78</v>
@@ -4934,10 +4962,10 @@
         <v>78</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>88</v>
@@ -4949,21 +4977,21 @@
         <v>100</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>266</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4986,17 +5014,19 @@
         <v>89</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>268</v>
+        <v>208</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>272</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>222</v>
+      </c>
       <c r="O33" t="s" s="2">
-        <v>271</v>
+        <v>223</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>78</v>
@@ -5021,13 +5051,13 @@
         <v>78</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>272</v>
+        <v>78</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>273</v>
+        <v>78</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>274</v>
+        <v>78</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>78</v>
@@ -5045,7 +5075,7 @@
         <v>78</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
@@ -5060,21 +5090,21 @@
         <v>100</v>
       </c>
       <c r="AK33" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AM33" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>277</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5097,16 +5127,18 @@
         <v>89</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>157</v>
+        <v>277</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" s="2"/>
+      <c r="O34" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>78</v>
       </c>
@@ -5130,13 +5162,13 @@
         <v>78</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>78</v>
+        <v>162</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>78</v>
+        <v>281</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>78</v>
+        <v>282</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>78</v>
@@ -5154,7 +5186,7 @@
         <v>78</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
@@ -5169,21 +5201,21 @@
         <v>100</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>78</v>
+        <v>285</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5203,16 +5235,16 @@
         <v>78</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>166</v>
+        <v>287</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>167</v>
+        <v>288</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5263,7 +5295,7 @@
         <v>78</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>168</v>
+        <v>286</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
@@ -5275,13 +5307,13 @@
         <v>78</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>78</v>
+        <v>289</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>169</v>
+        <v>290</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>78</v>
@@ -5289,21 +5321,21 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>133</v>
+        <v>78</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>78</v>
@@ -5315,17 +5347,15 @@
         <v>78</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>134</v>
+        <v>174</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>135</v>
+        <v>175</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>78</v>
@@ -5374,25 +5404,25 @@
         <v>78</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>139</v>
+        <v>78</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>78</v>
@@ -5400,14 +5430,14 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>174</v>
+        <v>133</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -5420,26 +5450,24 @@
         <v>78</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K37" t="s" s="2">
         <v>134</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>175</v>
+        <v>135</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="N37" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="O37" t="s" s="2">
-        <v>143</v>
-      </c>
+      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>78</v>
       </c>
@@ -5487,7 +5515,7 @@
         <v>78</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
@@ -5505,7 +5533,7 @@
         <v>78</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>131</v>
+        <v>178</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>78</v>
@@ -5513,43 +5541,45 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>78</v>
+        <v>183</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="J38" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>90</v>
+        <v>134</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>287</v>
+        <v>184</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="N38" s="2"/>
+        <v>185</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="O38" t="s" s="2">
-        <v>289</v>
+        <v>143</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>78</v>
@@ -5598,25 +5628,25 @@
         <v>78</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>286</v>
+        <v>186</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>290</v>
+        <v>78</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>291</v>
+        <v>131</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>78</v>
@@ -5624,10 +5654,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5650,19 +5680,17 @@
         <v>89</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>295</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>78</v>
@@ -5687,13 +5715,13 @@
         <v>78</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>297</v>
+        <v>78</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>298</v>
+        <v>78</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>299</v>
+        <v>78</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>78</v>
@@ -5711,7 +5739,7 @@
         <v>78</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>88</v>
@@ -5726,10 +5754,10 @@
         <v>100</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>78</v>
@@ -5737,10 +5765,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5748,7 +5776,7 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>88</v>
@@ -5763,19 +5791,19 @@
         <v>89</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="N40" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="O40" t="s" s="2">
         <v>304</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>78</v>
@@ -5800,13 +5828,13 @@
         <v>78</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>78</v>
+        <v>305</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>78</v>
+        <v>306</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>78</v>
+        <v>307</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>78</v>
@@ -5824,10 +5852,10 @@
         <v>78</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>88</v>
@@ -5861,13 +5889,13 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>78</v>
@@ -5943,7 +5971,7 @@
         <v>79</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>78</v>
@@ -5952,10 +5980,10 @@
         <v>100</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>78</v>
+        <v>316</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>78</v>
@@ -5963,10 +5991,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -5974,13 +6002,13 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>78</v>
@@ -5989,17 +6017,19 @@
         <v>89</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>321</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>322</v>
+      </c>
       <c r="O42" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>78</v>
@@ -6048,13 +6078,13 @@
         <v>78</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>78</v>
@@ -6066,14 +6096,125 @@
         <v>78</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="AM42" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="43" hidden="true">
+      <c r="A43" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E43" s="2"/>
+      <c r="F43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J43" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="N43" s="2"/>
+      <c r="O43" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="P43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q43" s="2"/>
+      <c r="R43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="AM43" t="s" s="2">
         <v>78</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM42">
+  <autoFilter ref="A1:AM43">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -6083,7 +6224,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI41">
+  <conditionalFormatting sqref="A2:AI42">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/temp/pages/StructureDefinition-rtlsMessageUnenrollmentHeader.xlsx
+++ b/temp/pages/StructureDefinition-rtlsMessageUnenrollmentHeader.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-05T14:07:30-05:00</t>
+    <t>2025-08-05T17:07:14-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/temp/pages/StructureDefinition-rtlsMessageUnenrollmentHeader.xlsx
+++ b/temp/pages/StructureDefinition-rtlsMessageUnenrollmentHeader.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-05T17:07:14-05:00</t>
+    <t>2025-08-05T17:18:07-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/temp/pages/StructureDefinition-rtlsMessageUnenrollmentHeader.xlsx
+++ b/temp/pages/StructureDefinition-rtlsMessageUnenrollmentHeader.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-05T17:18:07-05:00</t>
+    <t>2025-08-06T08:42:49-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/temp/pages/StructureDefinition-rtlsMessageUnenrollmentHeader.xlsx
+++ b/temp/pages/StructureDefinition-rtlsMessageUnenrollmentHeader.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-06T08:42:49-05:00</t>
+    <t>2025-08-06T11:48:33-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/temp/pages/StructureDefinition-rtlsMessageUnenrollmentHeader.xlsx
+++ b/temp/pages/StructureDefinition-rtlsMessageUnenrollmentHeader.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-06T11:48:33-05:00</t>
+    <t>2025-08-06T12:28:55-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/temp/pages/StructureDefinition-rtlsMessageUnenrollmentHeader.xlsx
+++ b/temp/pages/StructureDefinition-rtlsMessageUnenrollmentHeader.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-06T12:28:55-05:00</t>
+    <t>2025-08-07T11:40:07-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/temp/pages/StructureDefinition-rtlsMessageUnenrollmentHeader.xlsx
+++ b/temp/pages/StructureDefinition-rtlsMessageUnenrollmentHeader.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-07T11:40:07-05:00</t>
+    <t>2025-08-07T11:52:05-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
